--- a/Testplan Rapport mm/Matris - User Stories - FyraiRad- Case 2 Sprint 1.xlsx
+++ b/Testplan Rapport mm/Matris - User Stories - FyraiRad- Case 2 Sprint 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E262F90-0D03-4BCD-B43A-9B769D17438B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9A20B-9244-41D3-B8BD-C6BC01643CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Icke-Funktionella krav - Täckningsmatris</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>As a user I want the application to follow the correct win conditions,  so that i can win</t>
+  </si>
+  <si>
+    <t>As a user I want the application to tell me when i lost</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>As a user I want the application to tell me when it is a draw</t>
   </si>
 </sst>
 </file>
@@ -228,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,81 +267,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -341,179 +278,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -525,8 +294,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,67 +303,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB34"/>
+  <dimension ref="B1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -889,11 +611,11 @@
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="12"/>
       <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="13"/>
       <c r="W2" s="3" t="s">
         <v>0</v>
       </c>
@@ -912,7 +634,7 @@
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="G4" s="19"/>
+      <c r="G4" s="14"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -989,151 +711,150 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="L6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="1"/>
       <c r="U6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="25"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="L7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1"/>
       <c r="U7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="13"/>
+      <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="13"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="U8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="13"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="L9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="L9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="U9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="2:28" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="L10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="U10" s="5"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -1143,30 +864,28 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:28" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="L11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="1"/>
-      <c r="U11" s="21" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
@@ -1174,26 +893,29 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+    <row r="12" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="L12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
-      <c r="U12" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -1201,25 +923,29 @@
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+    <row r="13" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="L13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1"/>
-      <c r="U13" s="23" t="s">
-        <v>29</v>
+      <c r="U13" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="W13" s="9"/>
       <c r="X13" s="10"/>
@@ -1228,7 +954,7 @@
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:28" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B14" s="5"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1245,8 +971,8 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="1"/>
-      <c r="U14" s="23" t="s">
-        <v>30</v>
+      <c r="U14" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="W14" s="9"/>
       <c r="X14" s="10"/>
@@ -1272,8 +998,9 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="1"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="9"/>
+      <c r="U15" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="W15" s="9"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -1286,54 +1013,55 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="L16" s="5"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="1"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="9"/>
+      <c r="U16" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="W16" s="9"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="L17" s="5"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="1"/>
       <c r="U17" s="5"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="10"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1351,10 +1079,9 @@
       <c r="R18" s="9"/>
       <c r="S18" s="1"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="8"/>
-      <c r="X18" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="10"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1364,113 +1091,174 @@
       <c r="B19" s="5"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="L19" s="5"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="1"/>
       <c r="U19" s="5"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="V20" s="17"/>
-      <c r="X20" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="1"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8"/>
+      <c r="X20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
     </row>
     <row r="21" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="X21" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="1"/>
+      <c r="U21" s="5"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
     </row>
     <row r="22" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="7"/>
-      <c r="X22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="V22" s="12"/>
+      <c r="X22" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="X24" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="9" t="s">
+    <row r="25" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="9" t="s">
+      <c r="V25" s="10"/>
+      <c r="X25" s="16"/>
+    </row>
+    <row r="26" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B26" s="9" t="s">
+      <c r="V26" s="10"/>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B29" s="21"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B30" s="21"/>
-    </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="21"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B32" s="21"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="21"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="21"/>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testplan Rapport mm/Matris - User Stories - FyraiRad- Case 2 Sprint 1.xlsx
+++ b/Testplan Rapport mm/Matris - User Stories - FyraiRad- Case 2 Sprint 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9A20B-9244-41D3-B8BD-C6BC01643CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0BDD58-1E62-4DC3-B5B1-59217CEA1A7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
   <si>
     <t>Icke-Funktionella krav - Täckningsmatris</t>
   </si>
@@ -51,24 +51,6 @@
     <t>Automatiserade User Stories Täckningsmatris</t>
   </si>
   <si>
-    <t>US01.js</t>
-  </si>
-  <si>
-    <t>US04.js</t>
-  </si>
-  <si>
-    <t>US06.js</t>
-  </si>
-  <si>
-    <t>US07.js</t>
-  </si>
-  <si>
-    <t>US09.js</t>
-  </si>
-  <si>
-    <t>US11.js</t>
-  </si>
-  <si>
     <t>Exploratory User Stories Täckningsmatris</t>
   </si>
   <si>
@@ -78,15 +60,9 @@
     <t>TM - TestManuscript</t>
   </si>
   <si>
-    <t>TM04</t>
-  </si>
-  <si>
     <t>TM06</t>
   </si>
   <si>
-    <t>TM07</t>
-  </si>
-  <si>
     <t>TM09</t>
   </si>
   <si>
@@ -96,36 +72,9 @@
     <t>TM05</t>
   </si>
   <si>
-    <t>IFK 01</t>
-  </si>
-  <si>
-    <t>IFK 02</t>
-  </si>
-  <si>
-    <t>IFK 03</t>
-  </si>
-  <si>
-    <t>IFK 04</t>
-  </si>
-  <si>
-    <t>IFK01</t>
-  </si>
-  <si>
-    <t>IFK02</t>
-  </si>
-  <si>
-    <t>IFK03</t>
-  </si>
-  <si>
-    <t>IFK04</t>
-  </si>
-  <si>
     <t>User Stories täckta av utforskande tester</t>
   </si>
   <si>
-    <t>Icke-Funktionella krav täckta av utforskande tester</t>
-  </si>
-  <si>
     <t>User Stories täckta av automatiserade tester</t>
   </si>
   <si>
@@ -157,13 +106,22 @@
   </si>
   <si>
     <t>As a user I want the application to tell me when it is a draw</t>
+  </si>
+  <si>
+    <t>TM02</t>
+  </si>
+  <si>
+    <t>TM10</t>
+  </si>
+  <si>
+    <t>US11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,15 +158,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +169,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -294,7 +239,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,20 +247,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,23 +545,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:28" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="L2" s="11"/>
       <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="12"/>
       <c r="W2" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,16 +571,14 @@
     </row>
     <row r="3" spans="2:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="W3" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="G4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -644,621 +588,487 @@
     <row r="5" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="L6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
-      <c r="U6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="2"/>
-      <c r="L7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-      <c r="U7" s="5" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="L8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="U8" s="5" t="s">
+      <c r="K8" s="11"/>
+      <c r="M8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="L9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
-      <c r="U9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="M9" s="15"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="2:28" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="L10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="20"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="4"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="2:28" s="1" customFormat="1" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="L11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="L12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="1"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
     </row>
     <row r="13" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="2"/>
-      <c r="L13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="1"/>
-      <c r="U13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-    </row>
-    <row r="14" spans="2:28" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="U13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+    </row>
+    <row r="14" spans="2:28" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="18"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="1"/>
-      <c r="U14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="U14" s="16"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+    </row>
+    <row r="15" spans="2:28" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="1"/>
-      <c r="U15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
+      <c r="U15" s="16"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="1"/>
-      <c r="U16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="U16" s="16"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="1"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="1"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="1"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9" t="s">
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="1"/>
+      <c r="M20" s="8"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="8"/>
-      <c r="X20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9" t="s">
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="1"/>
+      <c r="M21" s="8"/>
       <c r="U21" s="5"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-    </row>
-    <row r="22" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
-        <v>41</v>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="V22" s="12"/>
-      <c r="X22" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X23" s="16"/>
-    </row>
-    <row r="24" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="V24" s="7"/>
-      <c r="X24" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" s="10"/>
-      <c r="X25" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="X25" s="15"/>
     </row>
     <row r="26" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="V26" s="10"/>
-      <c r="X26" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="X26" s="15"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B32" s="15"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
